--- a/champ-scores.xlsx
+++ b/champ-scores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="258">
   <si>
     <t>Teamfight</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Aatrox</t>
   </si>
   <si>
-    <t>Jug</t>
-  </si>
-  <si>
     <t>1st type</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Hard (S)</t>
   </si>
   <si>
-    <t>Engage(A)</t>
-  </si>
-  <si>
     <t>Off (D)</t>
   </si>
   <si>
@@ -801,6 +795,9 @@
   </si>
   <si>
     <t>Zyra</t>
+  </si>
+  <si>
+    <t>Engage©</t>
   </si>
 </sst>
 </file>
@@ -1129,30 +1126,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1170,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -1192,23 +1189,23 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
       <c r="H2">
         <v>30</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -1239,25 +1236,25 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -1289,25 +1286,25 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -1328,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="T4" t="s">
         <v>11</v>
@@ -1339,25 +1336,25 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1378,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T5" t="s">
         <v>13</v>
@@ -1389,25 +1386,25 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1439,25 +1436,25 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1489,25 +1486,25 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1539,25 +1536,25 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -1589,25 +1586,25 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1639,25 +1636,25 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1689,25 +1686,25 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1725,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
         <v>27</v>
@@ -1736,25 +1733,25 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>20</v>
@@ -1786,25 +1783,25 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14">
         <v>20</v>
@@ -1828,33 +1825,33 @@
         <v>17</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>35</v>
@@ -1880,25 +1877,25 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -1924,25 +1921,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>25</v>
@@ -1968,25 +1965,25 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>20</v>
@@ -2012,25 +2009,25 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19">
         <v>30</v>
@@ -2056,25 +2053,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -2092,30 +2089,30 @@
         <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -2141,25 +2138,25 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>106</v>
-      </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22">
         <v>25</v>
@@ -2185,25 +2182,25 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>30</v>
@@ -2229,25 +2226,25 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>30</v>
@@ -2273,25 +2270,25 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -2317,25 +2314,25 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -2361,25 +2358,25 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
         <v>66</v>
       </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>20</v>
@@ -2405,25 +2402,25 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>20</v>
@@ -2449,25 +2446,25 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -2493,25 +2490,25 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>35</v>
@@ -2529,30 +2526,30 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
         <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>121</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -2578,25 +2575,25 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32">
         <v>15</v>
@@ -2622,25 +2619,25 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -2666,25 +2663,25 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -2702,30 +2699,30 @@
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H35">
         <v>25</v>
@@ -2751,25 +2748,25 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36">
         <v>30</v>
@@ -2787,30 +2784,30 @@
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37">
         <v>30</v>
@@ -2836,25 +2833,25 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>25</v>
@@ -2872,30 +2869,30 @@
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39">
         <v>30</v>
@@ -2921,25 +2918,25 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40">
         <v>20</v>
@@ -2957,30 +2954,30 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41">
         <v>30</v>
@@ -3006,25 +3003,25 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42">
         <v>30</v>
@@ -3050,25 +3047,25 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>20</v>
@@ -3094,25 +3091,25 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44">
         <v>15</v>
@@ -3138,25 +3135,25 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
         <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
       </c>
       <c r="H45">
         <v>30</v>
@@ -3182,25 +3179,25 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H46">
         <v>10</v>
@@ -3226,25 +3223,25 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
         <v>66</v>
       </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s">
-        <v>68</v>
-      </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>25</v>
@@ -3270,25 +3267,25 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>30</v>
@@ -3314,25 +3311,25 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>35</v>
@@ -3355,25 +3352,25 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H50">
         <v>30</v>
@@ -3399,25 +3396,25 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51">
         <v>35</v>
@@ -3443,25 +3440,25 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52">
         <v>25</v>
@@ -3487,25 +3484,25 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53">
         <v>30</v>
@@ -3531,25 +3528,25 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54">
         <v>25</v>
@@ -3575,25 +3572,25 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H55">
         <v>35</v>
@@ -3619,25 +3616,25 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>35</v>
@@ -3655,30 +3652,30 @@
         <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57">
         <v>30</v>
@@ -3704,25 +3701,25 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
         <v>48</v>
       </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58">
         <v>35</v>
@@ -3740,30 +3737,30 @@
         <v>15</v>
       </c>
       <c r="M58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H59">
         <v>20</v>
@@ -3789,25 +3786,25 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H60">
         <v>30</v>
@@ -3830,25 +3827,25 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H61">
         <v>20</v>
@@ -3874,25 +3871,25 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>30</v>
@@ -3918,25 +3915,25 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63">
         <v>25</v>
@@ -3962,25 +3959,25 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -4006,25 +4003,25 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H65">
         <v>35</v>
@@ -4050,25 +4047,25 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66">
         <v>35</v>
@@ -4094,25 +4091,25 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>30</v>
@@ -4138,25 +4135,25 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H68">
         <v>20</v>
@@ -4179,25 +4176,25 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>35</v>
@@ -4223,25 +4220,25 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H70">
         <v>35</v>
@@ -4267,25 +4264,25 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H71">
         <v>25</v>
@@ -4311,25 +4308,25 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H72">
         <v>30</v>
@@ -4355,25 +4352,25 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H73">
         <v>20</v>
@@ -4399,25 +4396,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>35</v>
@@ -4440,25 +4437,25 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H75">
         <v>35</v>
@@ -4484,25 +4481,25 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H76">
         <v>20</v>
@@ -4528,25 +4525,25 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H77">
         <v>25</v>
@@ -4572,25 +4569,25 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H78">
         <v>30</v>
@@ -4616,25 +4613,25 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H79">
         <v>15</v>
@@ -4660,25 +4657,25 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" t="s">
         <v>44</v>
-      </c>
-      <c r="F80" t="s">
-        <v>178</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
       </c>
       <c r="H80">
         <v>30</v>
@@ -4701,25 +4698,25 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H81">
         <v>35</v>
@@ -4745,25 +4742,25 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>15</v>
@@ -4781,30 +4778,30 @@
         <v>10</v>
       </c>
       <c r="M82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" t="s">
         <v>44</v>
-      </c>
-      <c r="E83" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" t="s">
-        <v>97</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
       </c>
       <c r="H83">
         <v>20</v>
@@ -4830,25 +4827,25 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" t="s">
-        <v>85</v>
-      </c>
       <c r="F84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H84">
         <v>30</v>
@@ -4874,25 +4871,25 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H85">
         <v>20</v>
@@ -4918,25 +4915,25 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H86">
         <v>35</v>
@@ -4962,25 +4959,25 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s">
         <v>185</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" t="s">
-        <v>106</v>
-      </c>
-      <c r="F87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" t="s">
-        <v>187</v>
       </c>
       <c r="H87">
         <v>35</v>
@@ -5006,25 +5003,25 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" t="s">
         <v>66</v>
       </c>
-      <c r="C88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" t="s">
-        <v>68</v>
-      </c>
       <c r="G88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H88">
         <v>20</v>
@@ -5050,25 +5047,25 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H89">
         <v>25</v>
@@ -5094,25 +5091,25 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
         <v>47</v>
       </c>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H90">
         <v>30</v>
@@ -5138,25 +5135,25 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H91">
         <v>30</v>
@@ -5182,25 +5179,25 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H92">
         <v>20</v>
@@ -5218,30 +5215,30 @@
         <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H93">
         <v>35</v>
@@ -5267,25 +5264,25 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H94">
         <v>30</v>
@@ -5311,25 +5308,25 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H95">
         <v>25</v>
@@ -5355,25 +5352,25 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H96">
         <v>25</v>
@@ -5399,25 +5396,25 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s">
+        <v>89</v>
+      </c>
+      <c r="E97" t="s">
         <v>132</v>
       </c>
-      <c r="D97" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" t="s">
-        <v>134</v>
-      </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H97">
         <v>20</v>
@@ -5443,25 +5440,25 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H98">
         <v>30</v>
@@ -5487,25 +5484,25 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H99">
         <v>30</v>
@@ -5531,25 +5528,25 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>30</v>
@@ -5572,25 +5569,25 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H101">
         <v>35</v>
@@ -5613,25 +5610,25 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>25</v>
@@ -5657,25 +5654,25 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H103">
         <v>25</v>
@@ -5701,25 +5698,25 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s">
         <v>66</v>
       </c>
-      <c r="C104" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" t="s">
-        <v>50</v>
-      </c>
-      <c r="E104" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s">
-        <v>68</v>
-      </c>
       <c r="G104" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H104">
         <v>20</v>
@@ -5745,25 +5742,25 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H105">
         <v>25</v>
@@ -5789,25 +5786,25 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F106" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G106" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H106">
         <v>30</v>
@@ -5833,25 +5830,25 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H107">
         <v>30</v>
@@ -5869,30 +5866,30 @@
         <v>35</v>
       </c>
       <c r="M107" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H108">
         <v>30</v>
@@ -5918,25 +5915,25 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H109">
         <v>35</v>
@@ -5962,25 +5959,25 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F110" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H110">
         <v>20</v>
@@ -6006,25 +6003,25 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" t="s">
         <v>47</v>
       </c>
-      <c r="C111" t="s">
-        <v>48</v>
-      </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>25</v>
@@ -6050,25 +6047,25 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H112">
         <v>30</v>
@@ -6091,25 +6088,25 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H113">
         <v>35</v>
@@ -6135,25 +6132,25 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H114">
         <v>30</v>
@@ -6179,25 +6176,25 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" t="s">
+        <v>62</v>
+      </c>
+      <c r="F115" t="s">
         <v>66</v>
       </c>
-      <c r="C115" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" t="s">
-        <v>64</v>
-      </c>
-      <c r="F115" t="s">
-        <v>68</v>
-      </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>25</v>
@@ -6223,25 +6220,25 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G116" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H116">
         <v>15</v>
@@ -6267,25 +6264,25 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F117" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>35</v>
@@ -6311,25 +6308,25 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H118">
         <v>20</v>
@@ -6355,25 +6352,25 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C119" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" t="s">
         <v>41</v>
       </c>
-      <c r="D119" t="s">
-        <v>42</v>
-      </c>
       <c r="E119" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H119">
         <v>30</v>
@@ -6399,25 +6396,25 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H120">
         <v>25</v>
@@ -6435,30 +6432,30 @@
         <v>30</v>
       </c>
       <c r="M120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E121" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>15</v>
@@ -6484,25 +6481,25 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>30</v>
@@ -6525,25 +6522,25 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H123">
         <v>30</v>
@@ -6569,25 +6566,25 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H124">
         <v>15</v>
@@ -6613,25 +6610,25 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" t="s">
         <v>47</v>
       </c>
-      <c r="C125" t="s">
-        <v>48</v>
-      </c>
       <c r="D125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H125">
         <v>20</v>
@@ -6657,25 +6654,25 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>35</v>
@@ -6698,25 +6695,25 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H127">
         <v>15</v>
@@ -6742,25 +6739,25 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C128" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>30</v>
@@ -6786,25 +6783,25 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>35</v>
@@ -6830,25 +6827,25 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H130">
         <v>35</v>
@@ -6871,25 +6868,25 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H131">
         <v>30</v>
@@ -6912,25 +6909,25 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" t="s">
         <v>66</v>
       </c>
-      <c r="C132" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" t="s">
-        <v>44</v>
-      </c>
-      <c r="E132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F132" t="s">
-        <v>68</v>
-      </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>35</v>
@@ -6956,25 +6953,25 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H133">
         <v>25</v>
@@ -7000,25 +6997,25 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H134">
         <v>35</v>
@@ -7044,25 +7041,25 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F135" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H135">
         <v>35</v>
@@ -7088,25 +7085,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F136" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G136" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H136">
         <v>30</v>
@@ -7132,25 +7129,25 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G137" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H137">
         <v>20</v>
@@ -7176,25 +7173,25 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H138">
         <v>35</v>
@@ -7217,25 +7214,25 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" t="s">
         <v>66</v>
       </c>
-      <c r="C139" t="s">
-        <v>79</v>
-      </c>
-      <c r="D139" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" t="s">
-        <v>64</v>
-      </c>
-      <c r="F139" t="s">
-        <v>68</v>
-      </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H139">
         <v>35</v>
@@ -7261,25 +7258,25 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H140">
         <v>20</v>
@@ -7305,25 +7302,25 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D141" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H141">
         <v>20</v>
@@ -7349,25 +7346,25 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E142" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H142">
         <v>20</v>
@@ -7390,25 +7387,25 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H143">
         <v>30</v>
@@ -7431,25 +7428,25 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H144">
         <v>35</v>
@@ -7475,25 +7472,25 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D145" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>20</v>
@@ -7519,25 +7516,25 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" t="s">
+        <v>77</v>
+      </c>
+      <c r="D146" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" t="s">
         <v>66</v>
       </c>
-      <c r="C146" t="s">
-        <v>79</v>
-      </c>
-      <c r="D146" t="s">
-        <v>44</v>
-      </c>
-      <c r="E146" t="s">
-        <v>68</v>
-      </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H146">
         <v>35</v>
@@ -7563,25 +7560,25 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H147">
         <v>30</v>
@@ -7599,30 +7596,30 @@
         <v>10</v>
       </c>
       <c r="M147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B148" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" t="s">
         <v>66</v>
       </c>
-      <c r="C148" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" t="s">
-        <v>68</v>
-      </c>
       <c r="F148" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H148">
         <v>25</v>
@@ -7648,25 +7645,25 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
+        <v>47</v>
+      </c>
+      <c r="D149" t="s">
         <v>48</v>
       </c>
-      <c r="D149" t="s">
-        <v>49</v>
-      </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H149">
         <v>35</v>

--- a/champ-scores.xlsx
+++ b/champ-scores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="261">
   <si>
     <t>Teamfight</t>
   </si>
@@ -798,6 +798,15 @@
   </si>
   <si>
     <t>Engage©</t>
+  </si>
+  <si>
+    <t>caiCa</t>
+  </si>
+  <si>
+    <t>Mitigate ©</t>
+  </si>
+  <si>
+    <t>Off ©</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="E149" workbookViewId="0">
+      <selection activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1554,7 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -1689,7 +1698,7 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -1739,7 +1748,7 @@
         <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -1936,7 +1945,7 @@
         <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
@@ -1948,13 +1957,13 @@
         <v>20</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>25</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
@@ -2048,7 +2057,7 @@
         <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2229,10 +2238,10 @@
         <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
@@ -2244,7 +2253,7 @@
         <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H24">
         <v>30</v>
@@ -2282,7 +2291,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>66</v>
@@ -2353,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2461,7 +2470,7 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -2552,7 +2561,7 @@
         <v>119</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>35</v>
@@ -2561,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <v>35</v>
@@ -2678,25 +2687,25 @@
         <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>122</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J34">
         <v>10</v>
       </c>
       <c r="K34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
         <v>75</v>
@@ -2734,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
         <v>13</v>
@@ -2766,7 +2775,7 @@
         <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>30</v>
@@ -2778,10 +2787,10 @@
         <v>10</v>
       </c>
       <c r="K36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
         <v>75</v>
@@ -2913,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="N39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3053,7 +3062,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -3282,7 +3291,7 @@
         <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -3367,7 +3376,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
         <v>49</v>
@@ -3886,7 +3895,7 @@
         <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -4027,16 +4036,16 @@
         <v>35</v>
       </c>
       <c r="I65">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J65">
         <v>25</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M65" t="s">
         <v>15</v>
@@ -4443,7 +4452,7 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
         <v>48</v>
@@ -4496,7 +4505,7 @@
         <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
         <v>52</v>
@@ -5977,7 +5986,7 @@
         <v>57</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H110">
         <v>20</v>
@@ -6091,7 +6100,7 @@
         <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>130</v>
@@ -6905,6 +6914,9 @@
       </c>
       <c r="M131" t="s">
         <v>25</v>
+      </c>
+      <c r="N131" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
